--- a/data_year/zb/教育/成人本科分学科学生数/成人本科分学科在校学生数.xlsx
+++ b/data_year/zb/教育/成人本科分学科学生数/成人本科分学科在校学生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,783 +588,439 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.5954</v>
+        <v>225.0457</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0042</v>
+        <v>0.0167</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1965</v>
+        <v>0.326</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2089</v>
+        <v>0.0198</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8155</v>
+        <v>0.4557</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3905</v>
+        <v>0.248</v>
       </c>
       <c r="H2" t="n">
-        <v>8.637600000000001</v>
+        <v>2.7538</v>
       </c>
       <c r="I2" t="n">
-        <v>10.632</v>
+        <v>5.1853</v>
       </c>
       <c r="J2" t="n">
-        <v>1.5215</v>
+        <v>1.3961</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6477</v>
+        <v>1.6793</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9458</v>
+        <v>0.4678</v>
       </c>
       <c r="M2" t="n">
-        <v>2.0398</v>
+        <v>0.242</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5285</v>
+        <v>0.645</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1486</v>
+        <v>0.1446</v>
       </c>
       <c r="P2" t="n">
-        <v>0.555</v>
+        <v>0.1279</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7238</v>
+        <v>3.2269</v>
       </c>
       <c r="R2" t="n">
-        <v>12.6185</v>
+        <v>36.2991</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9923999999999999</v>
+        <v>0.6523</v>
       </c>
       <c r="T2" t="n">
-        <v>0.003</v>
+        <v>0.0257</v>
       </c>
       <c r="U2" t="n">
-        <v>10.3879</v>
+        <v>10.784</v>
       </c>
       <c r="V2" t="n">
-        <v>25.5206</v>
+        <v>50.3263</v>
       </c>
       <c r="W2" t="n">
-        <v>35.8351</v>
+        <v>36.8612</v>
       </c>
       <c r="X2" t="n">
-        <v>130.9634</v>
+        <v>219.8604</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.7015</v>
+        <v>11.5024</v>
       </c>
       <c r="Z2" t="n">
-        <v>29.1935</v>
+        <v>36.7965</v>
       </c>
       <c r="AA2" t="n">
-        <v>13.0313</v>
+        <v>12.8798</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.0352</v>
+        <v>7.6819</v>
       </c>
       <c r="AC2" t="n">
-        <v>23.678</v>
+        <v>51.9387</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.4656</v>
+        <v>8.530799999999999</v>
       </c>
       <c r="AE2" t="n">
-        <v>6.0545</v>
+        <v>5.483</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.114</v>
+        <v>233.6132</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0068</v>
+        <v>0.0127</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4369</v>
+        <v>0.5003</v>
       </c>
       <c r="E3" t="n">
-        <v>0.171</v>
+        <v>0.0138</v>
       </c>
       <c r="F3" t="n">
-        <v>2.0485</v>
+        <v>0.3928</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4554</v>
+        <v>0.2081</v>
       </c>
       <c r="H3" t="n">
-        <v>8.704700000000001</v>
+        <v>1.8861</v>
       </c>
       <c r="I3" t="n">
-        <v>11.3423</v>
+        <v>4.9928</v>
       </c>
       <c r="J3" t="n">
-        <v>1.7542</v>
+        <v>1.3713</v>
       </c>
       <c r="K3" t="n">
-        <v>5.0265</v>
+        <v>1.3673</v>
       </c>
       <c r="L3" t="n">
-        <v>0.795</v>
+        <v>0.4861</v>
       </c>
       <c r="M3" t="n">
-        <v>1.9373</v>
+        <v>0.2063</v>
       </c>
       <c r="N3" t="n">
-        <v>0.642</v>
+        <v>0.6751</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1172</v>
+        <v>0.1518</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5683</v>
+        <v>0.1205</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2429</v>
+        <v>3.4547</v>
       </c>
       <c r="R3" t="n">
-        <v>16.0229</v>
+        <v>42.2216</v>
       </c>
       <c r="S3" t="n">
-        <v>0.924</v>
+        <v>0.5248</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0038</v>
+        <v>0.0167</v>
       </c>
       <c r="U3" t="n">
-        <v>12.0689</v>
+        <v>9.267300000000001</v>
       </c>
       <c r="V3" t="n">
-        <v>28.0959</v>
+        <v>53.9077</v>
       </c>
       <c r="W3" t="n">
-        <v>18.6024</v>
+        <v>30.1429</v>
       </c>
       <c r="X3" t="n">
-        <v>149.7717</v>
+        <v>228.6204</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.4191</v>
+        <v>11.3834</v>
       </c>
       <c r="Z3" t="n">
-        <v>33.8992</v>
+        <v>33.2402</v>
       </c>
       <c r="AA3" t="n">
-        <v>13.9072</v>
+        <v>12.3353</v>
       </c>
       <c r="AB3" t="n">
-        <v>11.4442</v>
+        <v>6.8188</v>
       </c>
       <c r="AC3" t="n">
-        <v>28.1738</v>
+        <v>56.4122</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.6387</v>
+        <v>8.305</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.9063</v>
+        <v>5.2618</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.0297</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0094</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3577</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2432</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.2913</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.5856</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11.1251</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14.3244</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.8278</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6.2003</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.9187</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.2112</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.8613</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.1092</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.6499</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.1019</v>
-      </c>
-      <c r="R4" t="n">
-        <v>21.3108</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.1919</v>
-      </c>
+        <v>247.5495</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>14.9316</v>
-      </c>
-      <c r="V4" t="n">
-        <v>37.3201</v>
-      </c>
-      <c r="W4" t="n">
-        <v>51.1484</v>
-      </c>
-      <c r="X4" t="n">
-        <v>197.7053</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>12.112</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>43.8627</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>18.1484</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>14.4503</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>38.2329</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7.9743</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>8.022600000000001</v>
-      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>222.7218</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0083</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3462</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.6584</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="H5" t="n">
-        <v>9.0298</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12.122</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.8644</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5.0591</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.7571</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.4611</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.885</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.1038</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.4221</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3.5628</v>
-      </c>
-      <c r="R5" t="n">
-        <v>25.062</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.9728</v>
-      </c>
+        <v>265.4596</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
-        <v>14.7737</v>
-      </c>
-      <c r="V5" t="n">
-        <v>42.6779</v>
-      </c>
-      <c r="W5" t="n">
-        <v>48.5179</v>
-      </c>
-      <c r="X5" t="n">
-        <v>210.5998</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>12.3999</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>44.2027</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>17.6506</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>12.7753</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>43.3862</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.9096</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>7.3934</v>
-      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>235.2832</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.009900000000000001</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2999</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1287</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.3291</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.3777</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7.4903</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10.577</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.6411</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.379</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.783</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.9236</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.8577</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.1764</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.3186</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3.9758</v>
-      </c>
-      <c r="R6" t="n">
-        <v>29.0623</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.8757</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="U6" t="n">
-        <v>14.2694</v>
-      </c>
-      <c r="V6" t="n">
-        <v>48.006</v>
-      </c>
-      <c r="W6" t="n">
-        <v>46.9702</v>
-      </c>
-      <c r="X6" t="n">
-        <v>224.7062</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>12.9002</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>45.3083</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>16.7977</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>11.2196</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>48.095</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8.463200000000001</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>6.9522</v>
-      </c>
+        <v>279.7917</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>225.6662</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0137</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.3296</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0761</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.9715</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.3096</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5.3069</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8.022399999999999</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.9723</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.2691</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.5701000000000001</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.5759</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.7187</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.1873</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.2211</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3.4379</v>
-      </c>
-      <c r="R7" t="n">
-        <v>32.2033</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.7282999999999999</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.0239</v>
-      </c>
-      <c r="U7" t="n">
-        <v>12.2752</v>
-      </c>
-      <c r="V7" t="n">
-        <v>48.0391</v>
-      </c>
-      <c r="W7" t="n">
-        <v>40.7429</v>
-      </c>
-      <c r="X7" t="n">
-        <v>217.6438</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>11.9294</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>40.6894</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>13.8395</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>9.085800000000001</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>49.1981</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>8.469099999999999</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>5.8811</v>
-      </c>
+        <v>279.3354</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>225.0457</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0167</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.326</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0198</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.4557</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.7538</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.1853</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.3961</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.6793</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.4678</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.242</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.645</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.1446</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.1279</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3.2269</v>
-      </c>
-      <c r="R8" t="n">
-        <v>36.2991</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.6523</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.0257</v>
-      </c>
-      <c r="U8" t="n">
-        <v>10.784</v>
-      </c>
-      <c r="V8" t="n">
-        <v>50.3263</v>
-      </c>
-      <c r="W8" t="n">
-        <v>36.8612</v>
-      </c>
-      <c r="X8" t="n">
-        <v>219.8604</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>11.5024</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>36.7965</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>12.8798</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>7.6819</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>51.9387</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>8.530799999999999</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>5.483</v>
-      </c>
+        <v>268.6619</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>233.6132</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0127</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.5003</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0138</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.3928</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.2081</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.8861</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.9928</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.3713</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.3673</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.4861</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.2063</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.6751</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.1518</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.1205</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3.4547</v>
-      </c>
-      <c r="R9" t="n">
-        <v>42.2216</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.5248</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.0167</v>
-      </c>
-      <c r="U9" t="n">
-        <v>9.267300000000001</v>
-      </c>
-      <c r="V9" t="n">
-        <v>53.9077</v>
-      </c>
-      <c r="W9" t="n">
-        <v>30.1429</v>
-      </c>
-      <c r="X9" t="n">
-        <v>228.6204</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>11.3834</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>33.2402</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>12.3353</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>6.8188</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>56.4122</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8.305</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>5.2618</v>
-      </c>
+        <v>258.9809</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>247.5495</v>
+        <v>297.1134</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1399,11 +1055,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>265.4596</v>
+        <v>341.3174</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1438,11 +1094,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>279.7917</v>
+        <v>405.1025</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1477,11 +1133,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>279.3354</v>
+        <v>459.1098</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1513,201 +1169,6 @@
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>268.6619</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>258.9809</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>297.1134</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>341.3174</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>405.1025</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
